--- a/0咪咕音乐/咪咕音乐v3123/咪咕音乐Jadeite_USS_music-V3.12.3版本测试用例.xlsx
+++ b/0咪咕音乐/咪咕音乐v3123/咪咕音乐Jadeite_USS_music-V3.12.3版本测试用例.xlsx
@@ -10,14 +10,14 @@
     <sheet name="es" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">es!$A$1:$XEU$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">es!$A$1:$XEU$11</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>*功能模块</t>
   </si>
@@ -76,45 +76,94 @@
     <t>是否回归测试用例</t>
   </si>
   <si>
-    <t>咪咕音乐</t>
+    <t>音乐3.12.3版本</t>
   </si>
   <si>
     <t>音乐搜索门户支持屏蔽词搜索结果标识</t>
   </si>
   <si>
-    <t>门户接口搜索屏蔽词</t>
-  </si>
-  <si>
-    <t>mgyy-001</t>
-  </si>
-  <si>
-    <t>1、系统运行正常
-2、数据库中有全量数据</t>
-  </si>
-  <si>
-    <t>1、门户接口搜索屏蔽词
-2、查看返回报文</t>
-  </si>
-  <si>
-    <t>1、接口请求成功
-2、返回报文中有屏蔽词标识</t>
-  </si>
-  <si>
-    <t>V3.12.3</t>
-  </si>
-  <si>
-    <t>门户接口搜索非屏蔽词</t>
-  </si>
-  <si>
-    <t>mgyy-002</t>
-  </si>
-  <si>
-    <t>1、门户接口搜索非屏蔽词
-2、查看返回报文</t>
-  </si>
-  <si>
-    <t>1、接口请求成功
-2、返回报文中无屏蔽词标识</t>
+    <t>搜索词为中文屏蔽词（新接口v3）</t>
+  </si>
+  <si>
+    <t>yymh-001</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>1、系统正常，有全量数据</t>
+  </si>
+  <si>
+    <t>幻弦</t>
+  </si>
+  <si>
+    <t>1、门户接口搜索，发送请求 2、查看返回结果</t>
+  </si>
+  <si>
+    <t>1、请求成功 2、返回无结果，返回中有标识Info：shield</t>
+  </si>
+  <si>
+    <t>v3.12.3</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>搜索词为中文屏蔽词（老接口v2）</t>
+  </si>
+  <si>
+    <t>yymh-002</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>1、请求成功 2、返回有结果，返回中无标识Info：shield</t>
+  </si>
+  <si>
+    <t>搜索词为英文屏蔽词（新接口v3）</t>
+  </si>
+  <si>
+    <t>yymh-003</t>
+  </si>
+  <si>
+    <t>abouttime</t>
+  </si>
+  <si>
+    <t>搜索词为英文屏蔽词（老接口v2）</t>
+  </si>
+  <si>
+    <t>yymh-004</t>
+  </si>
+  <si>
+    <t>搜索词为带数字的屏蔽词（新接口v3）</t>
+  </si>
+  <si>
+    <t>yymh-005</t>
+  </si>
+  <si>
+    <t>0号加满</t>
+  </si>
+  <si>
+    <t>搜索词为带数字的屏蔽词（老接口v2）</t>
+  </si>
+  <si>
+    <t>yymh-006</t>
+  </si>
+  <si>
+    <t>搜索词为非屏蔽词（新接口v3）</t>
+  </si>
+  <si>
+    <t>yymh-007</t>
+  </si>
+  <si>
+    <t>周杰伦</t>
+  </si>
+  <si>
+    <t>搜索词为非屏蔽词（老接口v2）</t>
+  </si>
+  <si>
+    <t>yymh-008</t>
   </si>
 </sst>
 </file>
@@ -122,12 +171,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +206,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -170,27 +227,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="SimSun"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -199,7 +264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,7 +278,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,30 +286,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,6 +323,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -299,6 +349,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -306,15 +372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,192 +399,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -551,108 +609,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -663,6 +619,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,9 +682,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,26 +705,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -757,10 +713,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,222 +725,177 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1335,257 +1246,398 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="10.6111111111111" customWidth="1"/>
-    <col min="3" max="3" width="12.0925925925926" customWidth="1"/>
-    <col min="4" max="4" width="13.7037037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.4722222222222" customWidth="1"/>
-    <col min="6" max="6" width="10.2777777777778" customWidth="1"/>
-    <col min="8" max="8" width="23.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="19.6203703703704" customWidth="1"/>
-    <col min="10" max="10" width="36.1666666666667" customWidth="1"/>
-    <col min="11" max="11" width="33.9444444444444" customWidth="1"/>
-    <col min="13" max="13" width="11.6296296296296" customWidth="1"/>
-    <col min="20" max="28" width="9" style="4"/>
+    <col min="1" max="1" width="13.8888888888889" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.4907407407407" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.462962962963" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.8055555555556" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.9259259259259" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.537037037037" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.212962962963" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.3240740740741" style="3" customWidth="1"/>
+    <col min="10" max="10" width="33.8425925925926" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.5185185185185" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.9722222222222" style="3" customWidth="1"/>
+    <col min="13" max="13" width="23.2592592592593" style="3" customWidth="1"/>
+    <col min="14" max="15" width="14.3055555555556" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.6944444444444" style="3" customWidth="1"/>
+    <col min="17" max="27" width="14.3055555555556" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="9.72222222222222" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" spans="1:19">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" ht="35" customHeight="1" spans="1:22">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15" spans="1:29">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="2" customFormat="1" ht="35" customHeight="1" spans="1:19">
+      <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="28"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="60" spans="1:25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="11" t="s">
+    <row r="3" s="2" customFormat="1" ht="35" customHeight="1" spans="1:19">
+      <c r="A3" s="9"/>
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="30" spans="1:25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+    <row r="4" s="3" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21" t="s">
+      <c r="G4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="30" spans="1:25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21" t="s">
+    <row r="5" s="3" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="37" customHeight="1" spans="1:13">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="L6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21" t="s">
+      <c r="M6" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="37" customHeight="1" spans="1:13">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="38" customHeight="1" spans="1:13">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21" t="s">
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="21" t="s">
+    </row>
+    <row r="9" s="3" customFormat="1" ht="38" customHeight="1" spans="1:13">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
+      <c r="K9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="15.6" spans="1:25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
+    <row r="10" s="3" customFormat="1" ht="40" customHeight="1" spans="1:13">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="40" customHeight="1" spans="1:13">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XEU6">
+  <autoFilter ref="A1:XEU11">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0咪咕音乐/咪咕音乐v3123/咪咕音乐Jadeite_USS_music-V3.12.3版本测试用例.xlsx
+++ b/0咪咕音乐/咪咕音乐v3123/咪咕音乐Jadeite_USS_music-V3.12.3版本测试用例.xlsx
@@ -171,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -235,6 +235,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -248,63 +256,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,6 +324,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -332,47 +341,38 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,181 +399,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,78 +604,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,6 +633,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -713,10 +713,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,34 +725,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,97 +761,97 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,7 +1251,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
